--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f7fad7cdc18923/Documents/GitLab project/project for image/convert pic/p2/convert-pic-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6014" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF15C93-D9E6-4EF8-BC02-8F8F6A5EBDCC}"/>
+  <xr:revisionPtr revIDLastSave="6033" documentId="13_ncr:1_{08141CDB-C0EE-44BD-80D3-B351C4E8C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6665CA5-B505-43F8-BEBA-4D5214AA5EAD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="360" windowWidth="27420" windowHeight="15240" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>F1</t>
   </si>
@@ -1162,6 +1162,18 @@
       <t xml:space="preserve"> =</t>
     </r>
   </si>
+  <si>
+    <t>2 pc step beam - 2.4375 x 4 with 14 &amp; 16 Ga.sct</t>
+  </si>
+  <si>
+    <t>\\SOHEILDELL\Optim\Shapes\CFS\Posts shapes\Konstant3\Alltype</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>File Address</t>
+  </si>
 </sst>
 </file>
 
@@ -1316,7 +1328,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1401,6 +1413,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -16196,7 +16209,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="BV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CB3" sqref="CB3"/>
+      <selection pane="bottomRight" activeCell="BY3" sqref="BY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16220,6 +16233,8 @@
     <col min="72" max="72" width="14.5703125" style="1" customWidth="1"/>
     <col min="73" max="73" width="18.42578125" style="1" customWidth="1"/>
     <col min="74" max="74" width="17.42578125" style="1" customWidth="1"/>
+    <col min="76" max="76" width="28.140625" customWidth="1"/>
+    <col min="77" max="77" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.25">
@@ -16615,6 +16630,12 @@
       <c r="BW2" t="s">
         <v>113</v>
       </c>
+      <c r="BX2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -16804,18 +16825,13 @@
       <c r="BW3" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="BY3">
-        <f>(-Table_Cold_Formed_Database[[#This Row],[F24]]+BO3/2)</f>
-        <v>5.4850000000000065E-2</v>
+      <c r="BX3" s="38" t="s">
+        <v>122</v>
       </c>
-      <c r="BZ3">
-        <f>-Table_Cold_Formed_Database[[#This Row],[F22]]</f>
-        <v>-2.0531000000000001</v>
+      <c r="BY3" s="38" t="s">
+        <v>123</v>
       </c>
-      <c r="CB3" s="35">
-        <f xml:space="preserve"> (-Table_Cold_Formed_Database[[#This Row],[F22]]) + BP3/2</f>
-        <v>-0.83435000000000015</v>
-      </c>
+      <c r="CB3" s="35"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BM4" s="7"/>
